--- a/public/data/New added.xlsx
+++ b/public/data/New added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351A536-56CD-4C7E-8044-2D9F0487AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D24C6-53EA-46AC-8085-8F13840F145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="205">
   <si>
     <t>Mohamed Elmarzouki</t>
   </si>
@@ -556,6 +556,96 @@
   </si>
   <si>
     <t>signup_date</t>
+  </si>
+  <si>
+    <t>Hakim Canada</t>
+  </si>
+  <si>
+    <t>montreal.kader@gmail.com</t>
+  </si>
+  <si>
+    <t>HakimCanada@2</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Basmala</t>
+  </si>
+  <si>
+    <t>Website -100v</t>
+  </si>
+  <si>
+    <t>97:80:54:72:1b:7a</t>
+  </si>
+  <si>
+    <t>New Account</t>
+  </si>
+  <si>
+    <t>ABDULLAH KORIN</t>
+  </si>
+  <si>
+    <t>abdullhakorin@gmail.com</t>
+  </si>
+  <si>
+    <t>KORIN@4564</t>
+  </si>
+  <si>
+    <t>2 years + 2 months</t>
+  </si>
+  <si>
+    <t>Website - 90</t>
+  </si>
+  <si>
+    <t>8c:ea:48:bf:dd:b3</t>
+  </si>
+  <si>
+    <t>Ref: 17184066794</t>
+  </si>
+  <si>
+    <t>Madeleine Hebesh</t>
+  </si>
+  <si>
+    <t>madeleinehebesh@hotmail.com</t>
+  </si>
+  <si>
+    <t>trail5fhtyty / Madeleine2 / Madeleine1</t>
+  </si>
+  <si>
+    <t>Heba Ali</t>
+  </si>
+  <si>
+    <t>2 years + 7 months</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>80:0c:f9:5e:0a:aa / 6c:99:9d:95:a8:3e / d8a35cf23a6c</t>
+  </si>
+  <si>
+    <t>343347 / 544937 / 585221</t>
+  </si>
+  <si>
+    <t>3 ACC</t>
+  </si>
+  <si>
+    <t>Sobhi zeleita</t>
+  </si>
+  <si>
+    <t>Sobhizeleita@gmail.com</t>
+  </si>
+  <si>
+    <t>Sobhizeleita</t>
+  </si>
+  <si>
+    <t>Mohamed Tamer</t>
+  </si>
+  <si>
+    <t>Website 130</t>
+  </si>
+  <si>
+    <t>ca:2f:61:5f:71:ae</t>
   </si>
 </sst>
 </file>
@@ -613,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -816,11 +906,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -872,6 +992,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,9 +1285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2529,6 +2663,254 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
+    <row r="23" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>45865.219201388885</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="20">
+        <v>15144659063</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="20">
+        <v>79</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="20">
+        <v>337104</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="21"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>45865.224942129629</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="12">
+        <v>16615465229</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="12">
+        <v>129</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" s="12">
+        <v>377175</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>45865.246678240743</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="8">
+        <v>14168456150</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="8">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>45865.2497337963</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="12">
+        <v>17036265298</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="12">
+        <v>130</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="12">
+        <v>523482</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="13"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/public/data/New added.xlsx
+++ b/public/data/New added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4694DD3C-0BFA-46CA-9FFB-7BADF58A83C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470CC672-D98F-4F61-B459-685A4567D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
-  <si>
-    <t>US</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Saif Mohamed</t>
   </si>
@@ -42,9 +39,6 @@
     <t>SILVER</t>
   </si>
   <si>
-    <t>Website 219</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -63,15 +57,9 @@
     <t>USER = 1 ACC</t>
   </si>
   <si>
-    <t>Mina Nasr</t>
-  </si>
-  <si>
     <t>GOLD</t>
   </si>
   <si>
-    <t>Website 80</t>
-  </si>
-  <si>
     <t>Marwan Khaled</t>
   </si>
   <si>
@@ -84,28 +72,13 @@
     <t>CS TEAM</t>
   </si>
   <si>
-    <t>BOB PLAYER</t>
-  </si>
-  <si>
     <t>Renewal</t>
   </si>
   <si>
-    <t>Youssef Mekkawy</t>
-  </si>
-  <si>
     <t>Sherif Ashraf</t>
   </si>
   <si>
     <t>IBO PRO</t>
-  </si>
-  <si>
-    <t>Ali Ashraf</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>2 years + 6 months</t>
   </si>
   <si>
     <t>Name</t>
@@ -170,199 +143,163 @@
     <t>signup_date</t>
   </si>
   <si>
-    <t>Basmala</t>
-  </si>
-  <si>
     <t>2 years + 2 months</t>
   </si>
   <si>
-    <t>Website - 90</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Ameel Ibrahim</t>
-  </si>
-  <si>
-    <t>Amel 20072002@yahoo.com</t>
-  </si>
-  <si>
-    <t>AmeelIbrahim AmeelIbrahim120</t>
-  </si>
-  <si>
-    <t>mohamed sayed</t>
-  </si>
-  <si>
-    <t>Website 179</t>
-  </si>
-  <si>
-    <t>48:85:98:60:ef:7a</t>
-  </si>
-  <si>
-    <t>Raed AL TAAN</t>
-  </si>
-  <si>
-    <t>raedaltaan2016@gmail.com</t>
-  </si>
-  <si>
-    <t>RaedALTAAN</t>
-  </si>
-  <si>
-    <t>WEbsite 80</t>
-  </si>
-  <si>
-    <t>47:73:e4:99:25:6a</t>
-  </si>
-  <si>
-    <t>Ahmed Al-mahana</t>
-  </si>
-  <si>
-    <t>ahmed.almahana@yahoo.com</t>
-  </si>
-  <si>
-    <t>AhmedAl-mahana1 AhmedAl-mahana2</t>
-  </si>
-  <si>
-    <t>b0:f2:f6:43:c4:41</t>
-  </si>
-  <si>
-    <t>Hanan Marey</t>
-  </si>
-  <si>
-    <t>old coustomer</t>
-  </si>
-  <si>
-    <t>Hananmarey@2</t>
-  </si>
-  <si>
-    <t>2y+ (5m old)</t>
-  </si>
-  <si>
-    <t>A8:4A:63:22:94:C5</t>
-  </si>
-  <si>
-    <t>RENEWEL</t>
-  </si>
-  <si>
-    <t>Adham Wassef</t>
-  </si>
-  <si>
-    <t>Adhamw@hotmail.com</t>
-  </si>
-  <si>
-    <t>AdhamWassef02 / AdhamWassef01</t>
-  </si>
-  <si>
-    <t>ac:cc:fc:b5:3b:a8 / 0c:ee:99:5b:cb:4a</t>
-  </si>
-  <si>
-    <t>808256 / 904061</t>
-  </si>
-  <si>
-    <t>Nadia Maher</t>
-  </si>
-  <si>
-    <t>AdhamWassef03</t>
-  </si>
-  <si>
-    <t>EGYPT</t>
-  </si>
-  <si>
-    <t>54:bd:79:df:ac:06</t>
-  </si>
-  <si>
-    <t>Ref: 12812999369</t>
-  </si>
-  <si>
-    <t>Omar Aledan</t>
-  </si>
-  <si>
-    <t>⁦16478219992⁩</t>
-  </si>
-  <si>
-    <t>OmarAledan@1</t>
-  </si>
-  <si>
-    <t>Website - 200</t>
-  </si>
-  <si>
-    <t>d8:34:37:ad:bb:c9</t>
-  </si>
-  <si>
-    <t>Mohammed Almohamedawi</t>
-  </si>
-  <si>
-    <t>Karaarmoali@yahoo.com</t>
-  </si>
-  <si>
-    <t>Almohamedawi01 Almohamedawi02</t>
-  </si>
-  <si>
-    <t>2y+5m</t>
-  </si>
-  <si>
-    <t>e8:aa:cb:67:ca:fa</t>
-  </si>
-  <si>
-    <t>Mounir Ben laachir</t>
-  </si>
-  <si>
-    <t>mounirbenlaachir70@gmail.com</t>
-  </si>
-  <si>
-    <t>Mounir@22</t>
-  </si>
-  <si>
-    <t>17:22:8e:5a:ca:ec</t>
-  </si>
-  <si>
-    <t>Ref: 16176022166</t>
-  </si>
-  <si>
-    <t>George Boutros</t>
-  </si>
-  <si>
-    <t>gboutros33@gmail.com</t>
-  </si>
-  <si>
-    <t>GeorgeBoutros@333</t>
-  </si>
-  <si>
-    <t>d8:a3:5c:3b:73:08</t>
-  </si>
-  <si>
-    <t>14/7/2025</t>
-  </si>
-  <si>
-    <t>Mohamad Chehaibar</t>
-  </si>
-  <si>
-    <t>mohamadichehaibar@gmail.com</t>
-  </si>
-  <si>
-    <t>Chehaibar@654</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>sayed sherif</t>
-  </si>
-  <si>
-    <t>sherif ashraf</t>
-  </si>
-  <si>
-    <t>two years +6 mo</t>
-  </si>
-  <si>
-    <t>ibo player</t>
-  </si>
-  <si>
-    <t>website-90</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>Mohammed Ali</t>
+  </si>
+  <si>
+    <t>Rmrmali.ra@gmail.com</t>
+  </si>
+  <si>
+    <t>MohammedAli</t>
+  </si>
+  <si>
+    <t>yousef mohamed</t>
+  </si>
+  <si>
+    <t>Website 110</t>
+  </si>
+  <si>
+    <t>f2:99:8d:00:c8:3e</t>
+  </si>
+  <si>
+    <t>Mohey Badawi</t>
+  </si>
+  <si>
+    <t>Moheyp73@gmail.com</t>
+  </si>
+  <si>
+    <t>MoheyBadwi</t>
+  </si>
+  <si>
+    <t>Saif mohamed</t>
+  </si>
+  <si>
+    <t>1y+6m(OLD)</t>
+  </si>
+  <si>
+    <t>website 80</t>
+  </si>
+  <si>
+    <t>18:65:71:d0:f9:dd</t>
+  </si>
+  <si>
+    <t>Semon kachal</t>
+  </si>
+  <si>
+    <t>Semonkachal@gmail.com</t>
+  </si>
+  <si>
+    <t>Semonkachal@1</t>
+  </si>
+  <si>
+    <t>Omar Ramdan</t>
+  </si>
+  <si>
+    <t>94:e6:ba:aa:44:12</t>
+  </si>
+  <si>
+    <t>Tarek Barbir</t>
+  </si>
+  <si>
+    <t>Tk.barbir@gmail.com</t>
+  </si>
+  <si>
+    <t>TAREKBARBIR</t>
+  </si>
+  <si>
+    <t>Sayed Sherif</t>
+  </si>
+  <si>
+    <t>PERMIUM</t>
+  </si>
+  <si>
+    <t>website 100</t>
+  </si>
+  <si>
+    <t>e0:a7:2e:8e:54:e5</t>
+  </si>
+  <si>
+    <t>Mohamed Ismail</t>
+  </si>
+  <si>
+    <t>Koshmor@yahoo.com</t>
+  </si>
+  <si>
+    <t>MohamedIsmail</t>
+  </si>
+  <si>
+    <t>Ahmed Helmy</t>
+  </si>
+  <si>
+    <t>YOUSEF TEAM</t>
+  </si>
+  <si>
+    <t>WEbsite 100</t>
+  </si>
+  <si>
+    <t>80:3f:69:cc:30:56</t>
+  </si>
+  <si>
+    <t>Taoufik Mdarhri Alaoui</t>
+  </si>
+  <si>
+    <t>Bluedesir@hotmail.com</t>
+  </si>
+  <si>
+    <t>Taoufik@25 Taoufik@868</t>
+  </si>
+  <si>
+    <t>Mohamed Hossam</t>
+  </si>
+  <si>
+    <t>2y+6m</t>
+  </si>
+  <si>
+    <t>SMARTERS</t>
+  </si>
+  <si>
+    <t>Website 159</t>
+  </si>
+  <si>
+    <t>you will buy fire tv tomorrow</t>
+  </si>
+  <si>
+    <t>Marwan Rachid</t>
+  </si>
+  <si>
+    <t>Rachimarwan1963@gmal.com</t>
+  </si>
+  <si>
+    <t>old customer</t>
+  </si>
+  <si>
+    <t>website 180</t>
+  </si>
+  <si>
+    <t>2 USER = 2 1ACC</t>
+  </si>
+  <si>
+    <t>Abdullah Kamal</t>
+  </si>
+  <si>
+    <t>jibri008@gmail.com</t>
+  </si>
+  <si>
+    <t>Abdullah / Haider21</t>
+  </si>
+  <si>
+    <t>Ahmed Atef</t>
+  </si>
+  <si>
+    <t>Website - 70v</t>
+  </si>
+  <si>
+    <t>84:28:59:fc:21:ef / 48:78:5e:fc:8e:5c</t>
+  </si>
+  <si>
+    <t>796643 / 694669</t>
   </si>
 </sst>
 </file>
@@ -422,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +384,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -726,11 +681,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -821,6 +806,89 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,7 +1173,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,61 +1184,61 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
@@ -1178,581 +1246,545 @@
       <c r="W1" s="15"/>
       <c r="X1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>45865.999340277776</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>45866.171377314815</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="32">
+        <v>17167485893</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="32">
+        <v>109</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="32">
+        <v>321482</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
+    </row>
+    <row r="3" spans="1:27" s="41" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>45866.998368055552</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="38">
+        <v>17326476160</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="38">
+        <v>80</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8">
-        <v>12482989609</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="P3" s="38">
+        <v>555666</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" s="41" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>45867.055578703701</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="8">
-        <v>179</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C4" s="44">
+        <v>15866017315</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="E4" s="44">
+        <v>80</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="J4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="44">
+        <v>562395</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>45867.059432870374</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15146475734</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="8">
+        <v>167516</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="17"/>
+    </row>
+    <row r="6" spans="1:27" s="52" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47">
+        <v>45867.135717592595</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="49">
+        <v>12674759401</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="49">
+        <v>100</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M6" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="49">
+        <v>654894</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+    </row>
+    <row r="7" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>45867.142812500002</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15615121810</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="8">
+        <v>159</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="8">
-        <v>223079</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" spans="1:27" s="52" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>45867.952118055553</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="54">
+        <v>19172920732</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="49">
+        <v>180</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
-    </row>
-    <row r="3" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>45866.010289351849</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="11">
-        <v>14013325152</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="H8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="P8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="51"/>
+    </row>
+    <row r="9" spans="1:27" s="52" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>45868.158356481479</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="57">
+        <v>16125594578</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="57">
+        <v>149</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="M9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="11">
-        <v>434078</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="19"/>
-    </row>
-    <row r="4" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45866.018587962964</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="8">
-        <v>14257504632</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="8">
-        <v>179</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="N9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="8">
-        <v>790151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>45866.057280092595</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="11">
-        <v>18439018149</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="11">
-        <v>80</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="11">
-        <v>383887</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45866.084791666668</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="8">
-        <v>12812999369</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="8">
-        <v>219</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="17"/>
-    </row>
-    <row r="7" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>45866.088333333333</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="11">
-        <v>201222125830</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="11">
-        <v>100</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="11">
-        <v>382858</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45866.099016203705</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="8">
-        <v>771710</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="17"/>
-    </row>
-    <row r="9" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>45866.149710648147</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="11">
-        <v>15023863922</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11">
-        <v>219</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="11">
-        <v>924050</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="19"/>
-    </row>
-    <row r="10" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45866.150231481479</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="8">
-        <v>16173377850</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="8">
-        <v>129</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="8">
-        <v>635640</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="R9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -1763,61 +1795,25 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>45866.154756944445</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="21">
-        <v>15149474696</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="11">
-        <v>129</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="11">
-        <v>912900</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
@@ -1828,57 +1824,25 @@
       <c r="Z11" s="18"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="1:27" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="23">
-        <v>12503076338</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="25">
-        <v>129</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>109</v>
-      </c>
+    <row r="12" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
-      <c r="Q12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="26"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>

--- a/public/data/New added.xlsx
+++ b/public/data/New added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F8E16-2C05-4FE2-851F-4826D7D525AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069CC0E1-C386-4337-9F25-722EDC9BED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
-  <si>
-    <t>Saif Mohamed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>SILVER</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>USER = 1 ACC</t>
-  </si>
-  <si>
-    <t>TWO YEAR</t>
   </si>
   <si>
     <t>Name</t>
@@ -110,59 +98,35 @@
     <t>signup_date</t>
   </si>
   <si>
-    <t>Ahmed Helmy</t>
-  </si>
-  <si>
-    <t>YOUSEF TEAM</t>
-  </si>
-  <si>
-    <t>SMARTERS</t>
-  </si>
-  <si>
-    <t>Mohamed Mohamed</t>
-  </si>
-  <si>
-    <t>mlemine097@icloud.com</t>
-  </si>
-  <si>
-    <t>MohamedMohamed</t>
-  </si>
-  <si>
-    <t>Khaled tarek</t>
-  </si>
-  <si>
-    <t>Website 60</t>
-  </si>
-  <si>
-    <t>mobile only</t>
-  </si>
-  <si>
-    <t>Waleed Ali</t>
-  </si>
-  <si>
-    <t>Walghizi@yahoo.com</t>
-  </si>
-  <si>
-    <t>waleedAli25</t>
-  </si>
-  <si>
     <t>Ali Ashraf</t>
   </si>
   <si>
-    <t>BOB PLAYER</t>
-  </si>
-  <si>
-    <t>Website 80</t>
-  </si>
-  <si>
-    <t>5c:c1:d7:2c:87:31</t>
+    <t>MOHAMED TEAM</t>
+  </si>
+  <si>
+    <t>IBO PLAYER</t>
+  </si>
+  <si>
+    <t>old coustomer</t>
+  </si>
+  <si>
+    <t>Ishak Boulus</t>
+  </si>
+  <si>
+    <t>2y + (1y+6m old )</t>
+  </si>
+  <si>
+    <t>Website 100</t>
+  </si>
+  <si>
+    <t>Renew old coustomer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,13 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -215,12 +172,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,88 +187,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF442F65"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442F65"/>
       </right>
       <top style="medium">
         <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FFF8F9FA"/>
@@ -378,53 +260,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,61 +619,61 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -785,135 +681,70 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>45868.2184375</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>45869.157870370371</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7">
+        <v>16159758326</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="10">
-        <v>17177067218</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10">
-        <v>60</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>45868.222488425927</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="14">
-        <v>17734411439</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14">
-        <v>80</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="14">
-        <v>245627</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="5"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/public/data/New added.xlsx
+++ b/public/data/New added.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8C197-1100-463D-B6C3-527EDC8496EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E1F41-24B1-46BB-A5CD-C5FCADD88899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11790" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>SILVER</t>
   </si>
@@ -98,125 +98,35 @@
     <t>IBO PLAYER</t>
   </si>
   <si>
-    <t>Website 100</t>
-  </si>
-  <si>
     <t>TWO YEAR</t>
   </si>
   <si>
-    <t>CS TEAM</t>
-  </si>
-  <si>
-    <t>BOB PLAYER</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2y+4m</t>
-  </si>
-  <si>
-    <t>AHMED KHALED TEAM</t>
-  </si>
-  <si>
-    <t>SMARTERS</t>
-  </si>
-  <si>
-    <t>Sefen Adel</t>
-  </si>
-  <si>
-    <t>Sherif Ashraf</t>
-  </si>
-  <si>
-    <t>2 USER = 2 1ACC</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Dalal Suboh</t>
-  </si>
-  <si>
-    <t>dalalsuboh78@gmail.com</t>
-  </si>
-  <si>
-    <t>Dalal Suboh@1</t>
-  </si>
-  <si>
-    <t>BASMALA YASSER</t>
-  </si>
-  <si>
-    <t>WEBSIRE-91</t>
-  </si>
-  <si>
-    <t>Ihab allam</t>
-  </si>
-  <si>
-    <t>Ihaballam1975@gmail.com</t>
-  </si>
-  <si>
-    <t>Ihabalam@511</t>
-  </si>
-  <si>
-    <t>ahmed atef</t>
-  </si>
-  <si>
-    <t>year + 6 mo</t>
-  </si>
-  <si>
-    <t>website-41</t>
-  </si>
-  <si>
-    <t>d7370b7e68c7</t>
-  </si>
-  <si>
-    <t>renew</t>
-  </si>
-  <si>
-    <t>Youstina emed</t>
-  </si>
-  <si>
-    <t>12675772388-2675771623</t>
-  </si>
-  <si>
-    <t>Youstinamed@gmail.com</t>
-  </si>
-  <si>
-    <t>yousababouseif@1-yousababouseif@22</t>
-  </si>
-  <si>
-    <t>youssef mekkawy</t>
-  </si>
-  <si>
-    <t>4month + upgrade to king</t>
-  </si>
-  <si>
-    <t>ff3fbf10aa77</t>
-  </si>
-  <si>
-    <t>upgrade</t>
-  </si>
-  <si>
-    <t>WASSIM AFIFI</t>
-  </si>
-  <si>
-    <t>Wmafifi2000@gmail.com</t>
-  </si>
-  <si>
-    <t>WassimAfifi0111</t>
-  </si>
-  <si>
-    <t>4a:a4:81:98:de:7f</t>
+    <t>Ahmed zee</t>
+  </si>
+  <si>
+    <t>old coustomer</t>
+  </si>
+  <si>
+    <t>Mohsen Sayed</t>
+  </si>
+  <si>
+    <t>Ali AShraf</t>
+  </si>
+  <si>
+    <t>MOHAMED TEAM</t>
+  </si>
+  <si>
+    <t>Website 80</t>
+  </si>
+  <si>
+    <t>renew old coustomer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +150,13 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -268,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -396,11 +313,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,6 +381,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,9 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -725,7 +686,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -781,229 +742,130 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>45869.18545138889</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11">
-        <v>15877030840</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
+        <v>45869.217615740738</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13">
+        <v>15195053058</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="11">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>45869.189074074071</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8">
-        <v>17652102442</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8">
-        <v>59</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="8">
-        <v>203316</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45869.192627314813</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="5">
-        <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="5">
-        <v>106783</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45869.194178240738</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="8">
-        <v>17037434669</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="8">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="8">
-        <v>231825</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/data/New added.xlsx
+++ b/public/data/New added.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\project\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D.E\Downloads\the dashboard\project\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E1F41-24B1-46BB-A5CD-C5FCADD88899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ACAACE-02A6-4B5F-A110-04C497D95300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11790" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27990" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>SILVER</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>USER = 1 ACC</t>
   </si>
@@ -101,25 +95,223 @@
     <t>TWO YEAR</t>
   </si>
   <si>
-    <t>Ahmed zee</t>
-  </si>
-  <si>
-    <t>old coustomer</t>
-  </si>
-  <si>
     <t>Mohsen Sayed</t>
   </si>
   <si>
-    <t>Ali AShraf</t>
-  </si>
-  <si>
-    <t>MOHAMED TEAM</t>
-  </si>
-  <si>
-    <t>Website 80</t>
-  </si>
-  <si>
-    <t>renew old coustomer</t>
+    <t>Celine hanson</t>
+  </si>
+  <si>
+    <t>billy_hanson77@hotmail.com</t>
+  </si>
+  <si>
+    <t>Celinehanson</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Saif team</t>
+  </si>
+  <si>
+    <t>Marwan Khaled</t>
+  </si>
+  <si>
+    <t>SAIF MOHAMED</t>
+  </si>
+  <si>
+    <t>2y + 6m</t>
+  </si>
+  <si>
+    <t>BOB PLAYER</t>
+  </si>
+  <si>
+    <t>SLIVER</t>
+  </si>
+  <si>
+    <t>website 109</t>
+  </si>
+  <si>
+    <t>be:9f:d4:67:d4:74</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Rana alsaghir</t>
+  </si>
+  <si>
+    <t>Ranaa89@live.com</t>
+  </si>
+  <si>
+    <t>Ranaalsaghir</t>
+  </si>
+  <si>
+    <t>Mohamed Tarek</t>
+  </si>
+  <si>
+    <t>Sherif Ashraf</t>
+  </si>
+  <si>
+    <t>ALI ASHRAF</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>WEbsite 100</t>
+  </si>
+  <si>
+    <t>01:37:76:d1:64:34</t>
+  </si>
+  <si>
+    <t>Jose Zakarelli</t>
+  </si>
+  <si>
+    <t>15149090329//15187753346</t>
+  </si>
+  <si>
+    <t>hovig.zakarian@gmail.com</t>
+  </si>
+  <si>
+    <t>JoseZakarelli1/JoseZakarelli2</t>
+  </si>
+  <si>
+    <t>508-30 place de la cote vertu , st Laurent , Quebec , H4N1G3</t>
+  </si>
+  <si>
+    <t>Rodaina</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>2y&amp;3m</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>50:20:85:64:3e:64</t>
+  </si>
+  <si>
+    <t>Send fire stick</t>
+  </si>
+  <si>
+    <t>2 acc</t>
+  </si>
+  <si>
+    <t>Fadi Fares</t>
+  </si>
+  <si>
+    <t>fzfares@hotmail.com</t>
+  </si>
+  <si>
+    <t>FadiFares1 FadiFares2 FadiFares3 FadiFares4</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Khaled Tarek</t>
+  </si>
+  <si>
+    <t>Mohsen sayed</t>
+  </si>
+  <si>
+    <t>2y+6m</t>
+  </si>
+  <si>
+    <t>WEbsite 300</t>
+  </si>
+  <si>
+    <t>ec:0c:a7:59:51:3f</t>
+  </si>
+  <si>
+    <t>he active another 3 tv after 5 days</t>
+  </si>
+  <si>
+    <t>4 Acc</t>
+  </si>
+  <si>
+    <t>Badreldin Abdelrahman</t>
+  </si>
+  <si>
+    <t>badrabdelrahman@yahoo.com</t>
+  </si>
+  <si>
+    <t>BadreldinAbdelrahman</t>
+  </si>
+  <si>
+    <t>Kerolos Montaser</t>
+  </si>
+  <si>
+    <t>marwan Khaled</t>
+  </si>
+  <si>
+    <t>Website 110</t>
+  </si>
+  <si>
+    <t>cb:2e:b6:c6:3c:62</t>
+  </si>
+  <si>
+    <t>Dani Aoude</t>
+  </si>
+  <si>
+    <t>Daoude33@gmail.com</t>
+  </si>
+  <si>
+    <t>DaniAoude@1</t>
+  </si>
+  <si>
+    <t>2y+4m</t>
+  </si>
+  <si>
+    <t>WEbsite 110</t>
+  </si>
+  <si>
+    <t>1c:86:9a:a9:5d:a8</t>
+  </si>
+  <si>
+    <t>he old coustomer</t>
+  </si>
+  <si>
+    <t>Mohammed Abdulfattah</t>
+  </si>
+  <si>
+    <t>Lena.alani4@gmail.com</t>
+  </si>
+  <si>
+    <t>MohammedAbdulfattah</t>
+  </si>
+  <si>
+    <t>Mina Nasr</t>
+  </si>
+  <si>
+    <t>3a:ff:fe:ec:eb:b2</t>
+  </si>
+  <si>
+    <t>Jamal ELshareif</t>
+  </si>
+  <si>
+    <t>jelshareif@yahoo.ca</t>
+  </si>
+  <si>
+    <t>JamalELshareif@22 / JamalELshareif@1 / JamalELshareif@3</t>
+  </si>
+  <si>
+    <t>Ahmed Helmy</t>
+  </si>
+  <si>
+    <t>ibo pro</t>
+  </si>
+  <si>
+    <t>website 219</t>
+  </si>
+  <si>
+    <t>96:bb:c8:b5:21:43</t>
+  </si>
+  <si>
+    <t>3 ACC</t>
   </si>
 </sst>
 </file>
@@ -153,10 +345,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -185,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -285,10 +476,25 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF442F65"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="medium">
         <color rgb="FFF8F9FA"/>
@@ -303,7 +509,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="medium">
         <color rgb="FFF8F9FA"/>
@@ -318,13 +524,13 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,7 +542,7 @@
         <color rgb="FF442F65"/>
       </right>
       <top style="medium">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FFF8F9FA"/>
@@ -364,34 +570,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,186 +892,557 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>45895.252025462964</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7">
+        <v>17312676672</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>109</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="7">
+        <v>882502</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45895.970636574071</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11">
+        <v>13134430026</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="11">
+        <v>183855</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>45896.024502314816</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="14">
+        <v>200</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="14">
+        <v>779515</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45896.162048611113</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="11">
+        <v>17812499000</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11">
+        <v>300</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="11">
+        <v>516418</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>45896.167870370373</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19737273022</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14">
+        <v>109</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="14">
+        <v>124895</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45896.172638888886</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11">
+        <v>13132313264</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11">
+        <v>109</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="11">
+        <v>851304</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>45896.809293981481</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="14">
+        <v>12145177421</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="14">
+        <v>109</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="L8" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="M8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="14">
+        <v>283637</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
-    <row r="2" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>45869.217615740738</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="13">
-        <v>15195053058</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
-        <v>80</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+    <row r="9" spans="1:24" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45897.00576388889</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15198598512</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="5">
+        <v>219</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="L9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="5">
+        <v>831476</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
